--- a/survey.xlsx
+++ b/survey.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t xml:space="preserve">Nombre de la persona</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Marina</t>
   </si>
   <si>
-    <t xml:space="preserve">Leche, Pan</t>
+    <t xml:space="preserve">Leche, Huevos</t>
   </si>
   <si>
     <t xml:space="preserve">Joel</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Anita</t>
   </si>
   <si>
-    <t xml:space="preserve">Pan, Salchicha</t>
+    <t xml:space="preserve">Salchicha, Pastas</t>
   </si>
   <si>
     <t xml:space="preserve">Gabriella</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Julio</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollo, Huevos</t>
+    <t xml:space="preserve">Huevos, Arroz</t>
   </si>
   <si>
     <t xml:space="preserve">Julio Carnicero</t>
@@ -109,19 +109,19 @@
     <t xml:space="preserve">Giovanni</t>
   </si>
   <si>
-    <t xml:space="preserve">Frijoles, Pan</t>
+    <t xml:space="preserve">Frijoles, Café</t>
   </si>
   <si>
     <t xml:space="preserve">Jorge</t>
   </si>
   <si>
-    <t xml:space="preserve">Yogur, Leche</t>
+    <t xml:space="preserve">Pasta, Pastas</t>
   </si>
   <si>
     <t xml:space="preserve">Edith</t>
   </si>
   <si>
-    <t xml:space="preserve">Arroz, Pollo</t>
+    <t xml:space="preserve">Arroz, Pollo, Leche</t>
   </si>
   <si>
     <t xml:space="preserve">Rogelio</t>
@@ -133,43 +133,43 @@
     <t xml:space="preserve">Alberto</t>
   </si>
   <si>
-    <t xml:space="preserve">Arroz, Picadillo</t>
+    <t xml:space="preserve">Arroz, Picadillo, Frijoles, Sal</t>
   </si>
   <si>
     <t xml:space="preserve">Sara</t>
   </si>
   <si>
-    <t xml:space="preserve">Leche, Aceite</t>
+    <t xml:space="preserve">Leche, Aceite, Salchichas, Pastas</t>
   </si>
   <si>
     <t xml:space="preserve">Geroge</t>
   </si>
   <si>
-    <t xml:space="preserve">Arroz, Frijoles, Pollo</t>
+    <t xml:space="preserve">Arroz, Frijoles, Picadillo</t>
   </si>
   <si>
     <t xml:space="preserve">Giselle</t>
   </si>
   <si>
-    <t xml:space="preserve">Pan, Leche, Nescafé</t>
+    <t xml:space="preserve">Leche, Café</t>
   </si>
   <si>
     <t xml:space="preserve">Hector</t>
   </si>
   <si>
-    <t xml:space="preserve">Café, Azúcar</t>
+    <t xml:space="preserve">Café, Azúcar, Leche</t>
   </si>
   <si>
     <t xml:space="preserve">Esteban</t>
   </si>
   <si>
-    <t xml:space="preserve">Leche, Picadillo</t>
+    <t xml:space="preserve">Pollo, Picadillo</t>
   </si>
   <si>
     <t xml:space="preserve">Lázaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Arroz, Aceite</t>
+    <t xml:space="preserve">Arroz, Aceite, Frijoles</t>
   </si>
   <si>
     <t xml:space="preserve">Yoah</t>
@@ -181,31 +181,31 @@
     <t xml:space="preserve">Figueira</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollo, Frijoles</t>
+    <t xml:space="preserve">Pasta, Frijoles, Pastas</t>
   </si>
   <si>
     <t xml:space="preserve">Darlys</t>
   </si>
   <si>
-    <t xml:space="preserve">Pan, Café</t>
+    <t xml:space="preserve">Café, Huevos</t>
   </si>
   <si>
     <t xml:space="preserve">Armando Arquitecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Arroz, Azúcar</t>
+    <t xml:space="preserve">Arroz, Azúcar, Sal</t>
   </si>
   <si>
     <t xml:space="preserve">Yadira</t>
   </si>
   <si>
-    <t xml:space="preserve">Leche, Yogur</t>
+    <t xml:space="preserve">Leche, Pasta</t>
   </si>
   <si>
     <t xml:space="preserve">Junior</t>
   </si>
   <si>
-    <t xml:space="preserve">Huevos, Pechuga</t>
+    <t xml:space="preserve">Arroz, Pollo, Frijoles</t>
   </si>
   <si>
     <t xml:space="preserve">Lilí</t>
@@ -214,22 +214,19 @@
     <t xml:space="preserve">Edesa</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollo, Café</t>
+    <t xml:space="preserve">Pollo, Café, Pastas</t>
   </si>
   <si>
     <t xml:space="preserve">María Elena</t>
   </si>
   <si>
-    <t xml:space="preserve">Leche, Pan, Huevos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aide</t>
   </si>
   <si>
     <t xml:space="preserve">Ana María</t>
   </si>
   <si>
-    <t xml:space="preserve">Azúcar, Leche</t>
+    <t xml:space="preserve">Azúcar, Leche, Café</t>
   </si>
 </sst>
 </file>
@@ -305,8 +302,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,302 +505,302 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
